--- a/target/test-classes/Data/ExcelData.xlsx
+++ b/target/test-classes/Data/ExcelData.xlsx
@@ -16,13 +16,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>555555@softxpertdev.com</t>
+    <t>Abanoub111@softxpertdev.com</t>
   </si>
   <si>
-    <t>666666@softxpertdev.com</t>
+    <t>Abanoub222@softxpertdev.com</t>
   </si>
   <si>
-    <t>777777@softxpertdev.com</t>
+    <t>Abanoub333@softxpertdev.com</t>
   </si>
 </sst>
 </file>
@@ -67,9 +67,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -375,12 +376,13 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -392,7 +394,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -400,7 +402,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -409,10 +411,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1"/>
-    <hyperlink ref="A2" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId1"/>
+    <hyperlink ref="A3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>